--- a/DIGITAL PATOLOGY/RANABASE.xlsx
+++ b/DIGITAL PATOLOGY/RANABASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jocar\Desktop\LaboratorioBiofisica\DIGITAL PATOLOGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62583D6-E13C-400D-8E0E-D45E0BB9DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD03C0FD-5EC1-46FD-A00F-13C214D3F500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DB8236CE-84E3-4A1C-8674-25FDDF96B5DF}"/>
   </bookViews>
@@ -544,7 +544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,8 +579,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="7.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,15 +677,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,6 +694,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8696B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3585,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936CFCE5-C830-4109-9D2B-26A80A32B925}">
   <dimension ref="A1:S186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3594,7 +3611,7 @@
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -5679,40 +5696,40 @@
       <c r="R67" s="9"/>
       <c r="S67" s="10"/>
     </row>
-    <row r="68" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="11">
         <v>19.600000000000001</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>13.2</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="2"/>
         <v>0.6734693877551019</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="11">
         <v>203.2</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <v>16</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <v>7.9</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="11">
         <v>4.9000000000000004</v>
       </c>
       <c r="I68" s="9">
         <f t="shared" si="3"/>
         <v>0.620253164556962</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="11">
         <v>30.4</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K68" s="11">
         <v>16</v>
       </c>
       <c r="L68" s="9"/>
@@ -5724,30 +5741,30 @@
       <c r="R68" s="9"/>
       <c r="S68" s="10"/>
     </row>
-    <row r="69" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="9" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12">
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11">
         <v>120</v>
       </c>
-      <c r="M69" s="12">
+      <c r="M69" s="11">
         <v>17</v>
       </c>
       <c r="N69" s="9"/>
@@ -5757,46 +5774,46 @@
       <c r="R69" s="9"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="11">
         <v>25</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="11">
         <v>12.4</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="2"/>
         <v>0.496</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="11">
         <v>243.47</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <v>18</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="11">
         <v>9.9</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="11">
         <v>5.7</v>
       </c>
       <c r="I70" s="9">
         <f t="shared" si="3"/>
         <v>0.5757575757575758</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="11">
         <v>44.32</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K70" s="11">
         <v>18</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="11">
         <v>714</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M70" s="11">
         <v>18</v>
       </c>
       <c r="N70" s="9"/>
@@ -5807,37 +5824,37 @@
       <c r="S70" s="10"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="11">
         <v>24.8</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="11">
         <v>15.3</v>
       </c>
       <c r="D71" s="9">
         <f t="shared" si="2"/>
         <v>0.61693548387096775</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="11">
         <v>298.01</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="11">
         <v>4</v>
       </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12">
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11">
         <v>671</v>
       </c>
-      <c r="M71" s="12">
+      <c r="M71" s="11">
         <v>4</v>
       </c>
       <c r="N71" s="9"/>
@@ -5848,39 +5865,39 @@
       <c r="S71" s="10"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="11">
         <v>26.1</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="11">
         <v>13.5</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="2"/>
         <v>0.51724137931034475</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="11">
         <v>276.74</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>16</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="11">
         <v>10</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="11">
         <v>5.6</v>
       </c>
       <c r="I72" s="9">
         <f t="shared" si="3"/>
         <v>0.55999999999999994</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="11">
         <v>43.98</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K72" s="11">
         <v>16</v>
       </c>
       <c r="L72" s="9"/>
@@ -5893,39 +5910,39 @@
       <c r="S72" s="10"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <v>27.9</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <v>15.4</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" si="2"/>
         <v>0.55197132616487454</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <v>337.45</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <v>6</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <v>10.3</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <v>5.6</v>
       </c>
       <c r="I73" s="9">
         <f t="shared" si="3"/>
         <v>0.5436893203883495</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73" s="11">
         <v>45.3</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K73" s="11">
         <v>6</v>
       </c>
       <c r="L73" s="9"/>
@@ -5938,23 +5955,23 @@
       <c r="S73" s="10"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="11">
         <v>25.7</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="11">
         <v>14.2</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="2"/>
         <v>0.55252918287937747</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="11">
         <v>286.62</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>3</v>
       </c>
       <c r="G74" s="9"/>
@@ -5974,24 +5991,24 @@
       <c r="R74" s="9"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="11">
         <v>22.5</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="11">
         <v>15</v>
       </c>
       <c r="D75" s="9">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="11">
         <v>265.07</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <v>7</v>
       </c>
       <c r="G75" s="9"/>
@@ -6012,23 +6029,23 @@
       <c r="S75" s="10"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="11">
         <v>23</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="11">
         <v>11.9</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="2"/>
         <v>0.5173913043478261</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="11">
         <v>214.96</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>3</v>
       </c>
       <c r="G76" s="9"/>
@@ -6048,126 +6065,126 @@
       <c r="R76" s="9"/>
       <c r="S76" s="10"/>
     </row>
-    <row r="77" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="11">
         <v>25.4</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="11">
         <v>17.600000000000001</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" si="2"/>
         <v>0.69291338582677175</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="11">
         <v>351.1</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="11">
         <v>1</v>
       </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
       <c r="I77" s="9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12">
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11">
         <v>659</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M77" s="11">
         <v>8</v>
       </c>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12">
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11">
         <v>689</v>
       </c>
-      <c r="Q77" s="12">
+      <c r="Q77" s="11">
         <v>15</v>
       </c>
-      <c r="R77" s="12">
+      <c r="R77" s="11">
         <v>79</v>
       </c>
-      <c r="S77" s="12">
+      <c r="S77" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="9" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12">
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11">
         <v>343</v>
       </c>
-      <c r="Q78" s="12">
+      <c r="Q78" s="11">
         <v>15</v>
       </c>
-      <c r="R78" s="12">
+      <c r="R78" s="11">
         <v>58</v>
       </c>
-      <c r="S78" s="12">
+      <c r="S78" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="11">
         <v>21.8</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="11">
         <v>14.3</v>
       </c>
       <c r="D79" s="9">
         <f t="shared" si="2"/>
         <v>0.65596330275229364</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="11">
         <v>244.84</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="11">
         <v>16</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="11">
         <v>8.9</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="11">
         <v>5.3</v>
       </c>
       <c r="I79" s="9">
         <f t="shared" si="3"/>
         <v>0.5955056179775281</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J79" s="11">
         <v>37.049999999999997</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K79" s="11">
         <v>16</v>
       </c>
       <c r="L79" s="9"/>
@@ -6179,40 +6196,40 @@
       <c r="R79" s="9"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="11">
         <v>21.8</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="11">
         <v>14.3</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="2"/>
         <v>0.65596330275229364</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="11">
         <v>244.84</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="11">
         <v>16</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="11">
         <v>5.5</v>
       </c>
       <c r="I80" s="9">
         <f t="shared" si="3"/>
         <v>0.59139784946236551</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J80" s="11">
         <v>40.17</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K80" s="11">
         <v>16</v>
       </c>
       <c r="L80" s="9"/>
@@ -6224,24 +6241,24 @@
       <c r="R80" s="9"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="11">
         <v>20.399999999999999</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="11">
         <v>12.7</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="2"/>
         <v>0.62254901960784315</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="11">
         <v>203.48</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="11">
         <v>3</v>
       </c>
       <c r="G81" s="9"/>
@@ -6261,95 +6278,95 @@
       <c r="R81" s="9"/>
       <c r="S81" s="10"/>
     </row>
-    <row r="82" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <v>21.5</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <v>12.2</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="2"/>
         <v>0.56744186046511624</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <v>206.01</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <v>18</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <v>5.2</v>
       </c>
       <c r="I82" s="9">
         <f t="shared" si="3"/>
         <v>0.59090909090909083</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J82" s="11">
         <v>35.94</v>
       </c>
-      <c r="K82" s="12">
+      <c r="K82" s="11">
         <v>18</v>
       </c>
-      <c r="L82" s="12">
+      <c r="L82" s="11">
         <v>654</v>
       </c>
-      <c r="M82" s="12">
+      <c r="M82" s="11">
         <v>18</v>
       </c>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12">
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11">
         <v>544</v>
       </c>
-      <c r="Q82" s="12">
+      <c r="Q82" s="11">
         <v>15</v>
       </c>
-      <c r="R82" s="12">
+      <c r="R82" s="11">
         <v>48</v>
       </c>
-      <c r="S82" s="12">
+      <c r="S82" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="11">
         <v>23.8</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="11">
         <v>16.2</v>
       </c>
       <c r="D83" s="9">
         <f t="shared" si="2"/>
         <v>0.68067226890756294</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="11">
         <v>302.82</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="11">
         <v>9</v>
       </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
       <c r="I83" s="9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12">
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11">
         <v>768</v>
       </c>
-      <c r="M83" s="12">
+      <c r="M83" s="11">
         <v>9</v>
       </c>
       <c r="N83" s="9"/>
@@ -6360,23 +6377,23 @@
       <c r="S83" s="10"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="12">
+      <c r="B84" s="11">
         <v>20.5</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="11">
         <v>13.2</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="2"/>
         <v>0.64390243902439026</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="11">
         <v>212.53</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="11">
         <v>3</v>
       </c>
       <c r="G84" s="9"/>
@@ -6396,40 +6413,40 @@
       <c r="R84" s="9"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="11">
         <v>22.9</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="11">
         <v>14.9</v>
       </c>
       <c r="D85" s="9">
         <f t="shared" si="2"/>
         <v>0.65065502183406121</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="11">
         <v>267.99</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="11">
         <v>16</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="11">
         <v>8.5</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="11">
         <v>5.4</v>
       </c>
       <c r="I85" s="9">
         <f t="shared" si="3"/>
         <v>0.6352941176470589</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J85" s="11">
         <v>36.049999999999997</v>
       </c>
-      <c r="K85" s="12">
+      <c r="K85" s="11">
         <v>16</v>
       </c>
       <c r="L85" s="9"/>
@@ -6441,40 +6458,40 @@
       <c r="R85" s="9"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="11">
         <v>26.6</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="11">
         <v>16.100000000000001</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" si="2"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="11">
         <v>336.35</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="11">
         <v>16</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="11">
         <v>12</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="11">
         <v>6.4</v>
       </c>
       <c r="I86" s="9">
         <f t="shared" si="3"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J86" s="11">
         <v>60.32</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K86" s="11">
         <v>16</v>
       </c>
       <c r="L86" s="9"/>
@@ -6486,24 +6503,24 @@
       <c r="R86" s="9"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="11">
         <v>25.5</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="11">
         <v>16.5</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" si="2"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="11">
         <v>330.46</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="11">
         <v>7</v>
       </c>
       <c r="G87" s="9"/>
@@ -6524,39 +6541,39 @@
       <c r="S87" s="10"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="11">
         <v>24.5</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="11">
         <v>14.2</v>
       </c>
       <c r="D88" s="9">
         <f t="shared" si="2"/>
         <v>0.57959183673469383</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="11">
         <v>273.24</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="11">
         <v>16</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="11">
         <v>10</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H88" s="11">
         <v>5.7</v>
       </c>
       <c r="I88" s="9">
         <f t="shared" si="3"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J88" s="11">
         <v>44.77</v>
       </c>
-      <c r="K88" s="12">
+      <c r="K88" s="11">
         <v>16</v>
       </c>
       <c r="L88" s="9"/>
@@ -6568,40 +6585,40 @@
       <c r="R88" s="9"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="11">
         <v>22.9</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="11">
         <v>13.9</v>
       </c>
       <c r="D89" s="9">
         <f t="shared" si="2"/>
         <v>0.60698689956331886</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="11">
         <v>250</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="11">
         <v>1</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="11">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="11">
         <v>4</v>
       </c>
       <c r="I89" s="9">
         <f t="shared" si="3"/>
         <v>0.48780487804878053</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J89" s="11">
         <v>25.76</v>
       </c>
-      <c r="K89" s="12">
+      <c r="K89" s="11">
         <v>1</v>
       </c>
       <c r="L89" s="9"/>
@@ -6614,23 +6631,23 @@
       <c r="S89" s="10"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="11">
         <v>24.6</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="11">
         <v>16.899999999999999</v>
       </c>
       <c r="D90" s="9">
         <f t="shared" si="2"/>
         <v>0.68699186991869909</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="11">
         <v>326.52</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="11">
         <v>10</v>
       </c>
       <c r="G90" s="9"/>
@@ -6650,40 +6667,40 @@
       <c r="R90" s="9"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <v>22.2</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <v>14.2</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" si="2"/>
         <v>0.63963963963963966</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="11">
         <v>247.59</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <v>16</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <v>9.5</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <v>5.0999999999999996</v>
       </c>
       <c r="I91" s="9">
         <f t="shared" si="3"/>
         <v>0.5368421052631579</v>
       </c>
-      <c r="J91" s="12">
+      <c r="J91" s="11">
         <v>38.049999999999997</v>
       </c>
-      <c r="K91" s="12">
+      <c r="K91" s="11">
         <v>16</v>
       </c>
       <c r="L91" s="9"/>
@@ -6695,7 +6712,7 @@
       <c r="R91" s="9"/>
       <c r="S91" s="10"/>
     </row>
-    <row r="92" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>88</v>
       </c>
@@ -6709,7 +6726,7 @@
       </c>
       <c r="S92" s="5"/>
     </row>
-    <row r="93" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>89</v>
       </c>
@@ -6747,7 +6764,7 @@
       </c>
       <c r="S93" s="5"/>
     </row>
-    <row r="94" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
@@ -6785,7 +6802,7 @@
       </c>
       <c r="S94" s="5"/>
     </row>
-    <row r="95" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
@@ -6823,7 +6840,7 @@
       </c>
       <c r="S95" s="5"/>
     </row>
-    <row r="96" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>92</v>
       </c>
@@ -6837,7 +6854,7 @@
       </c>
       <c r="S96" s="5"/>
     </row>
-    <row r="97" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>93</v>
       </c>
@@ -6851,7 +6868,7 @@
       </c>
       <c r="S97" s="5"/>
     </row>
-    <row r="98" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>94</v>
       </c>
@@ -6887,7 +6904,7 @@
       </c>
       <c r="S98" s="5"/>
     </row>
-    <row r="99" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>95</v>
       </c>
@@ -6901,7 +6918,7 @@
       </c>
       <c r="S99" s="5"/>
     </row>
-    <row r="100" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>96</v>
       </c>
@@ -6915,7 +6932,7 @@
       </c>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>97</v>
       </c>
@@ -6952,7 +6969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>98</v>
       </c>
@@ -7023,7 +7040,7 @@
       </c>
       <c r="S103" s="5"/>
     </row>
-    <row r="104" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>99</v>
       </c>
@@ -7125,7 +7142,7 @@
       </c>
       <c r="S106" s="5"/>
     </row>
-    <row r="107" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>100</v>
       </c>
@@ -7162,7 +7179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>101</v>
       </c>
@@ -7199,7 +7216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>102</v>
       </c>
@@ -7236,7 +7253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>103</v>
       </c>
@@ -7332,7 +7349,7 @@
       </c>
       <c r="S112" s="5"/>
     </row>
-    <row r="113" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>104</v>
       </c>
@@ -7346,7 +7363,7 @@
       </c>
       <c r="S113" s="5"/>
     </row>
-    <row r="114" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>105</v>
       </c>
@@ -7503,7 +7520,7 @@
       </c>
       <c r="S117" s="5"/>
     </row>
-    <row r="118" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>106</v>
       </c>
@@ -7579,7 +7596,7 @@
       </c>
       <c r="S119" s="5"/>
     </row>
-    <row r="120" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>107</v>
       </c>
@@ -7593,7 +7610,7 @@
       </c>
       <c r="S120" s="5"/>
     </row>
-    <row r="121" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>108</v>
       </c>
@@ -7630,7 +7647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>109</v>
       </c>
@@ -7667,7 +7684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>110</v>
       </c>
@@ -7811,7 +7828,7 @@
       </c>
       <c r="S126" s="5"/>
     </row>
-    <row r="127" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>111</v>
       </c>
@@ -7825,7 +7842,7 @@
       </c>
       <c r="S127" s="5"/>
     </row>
-    <row r="128" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>112</v>
       </c>
@@ -7861,7 +7878,7 @@
       </c>
       <c r="S128" s="5"/>
     </row>
-    <row r="129" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>113</v>
       </c>
@@ -7875,7 +7892,7 @@
       </c>
       <c r="S129" s="5"/>
     </row>
-    <row r="130" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>114</v>
       </c>
@@ -7912,7 +7929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>115</v>
       </c>
@@ -7949,7 +7966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>116</v>
       </c>
@@ -8002,7 +8019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>117</v>
       </c>
@@ -8039,7 +8056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>118</v>
       </c>
@@ -8077,7 +8094,7 @@
       </c>
       <c r="S134" s="5"/>
     </row>
-    <row r="135" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>119</v>
       </c>
@@ -8115,7 +8132,7 @@
       </c>
       <c r="S135" s="5"/>
     </row>
-    <row r="136" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>120</v>
       </c>
@@ -8129,7 +8146,7 @@
       </c>
       <c r="S136" s="5"/>
     </row>
-    <row r="137" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>121</v>
       </c>
@@ -8166,7 +8183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>122</v>
       </c>
@@ -8203,7 +8220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>123</v>
       </c>
@@ -8229,7 +8246,7 @@
       </c>
       <c r="S139" s="5"/>
     </row>
-    <row r="140" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>124</v>
       </c>
@@ -8266,7 +8283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>125</v>
       </c>
@@ -8303,7 +8320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>126</v>
       </c>
@@ -8329,7 +8346,7 @@
       </c>
       <c r="S142" s="5"/>
     </row>
-    <row r="143" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>127</v>
       </c>
@@ -8381,7 +8398,7 @@
       </c>
       <c r="S144" s="5"/>
     </row>
-    <row r="145" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>128</v>
       </c>
@@ -8418,7 +8435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>129</v>
       </c>
@@ -8463,7 +8480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>130</v>
       </c>
@@ -8508,7 +8525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>131</v>
       </c>
@@ -8545,7 +8562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>132</v>
       </c>
@@ -8590,7 +8607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>133</v>
       </c>
@@ -8627,7 +8644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>134</v>
       </c>
@@ -8706,7 +8723,7 @@
       </c>
       <c r="S152" s="5"/>
     </row>
-    <row r="153" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>135</v>
       </c>
@@ -8732,7 +8749,7 @@
       </c>
       <c r="S153" s="5"/>
     </row>
-    <row r="154" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>136</v>
       </c>
@@ -8766,7 +8783,7 @@
       </c>
       <c r="S154" s="5"/>
     </row>
-    <row r="155" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>137</v>
       </c>
@@ -8811,7 +8828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>138</v>
       </c>
@@ -8848,7 +8865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>139</v>
       </c>
@@ -8862,7 +8879,7 @@
       </c>
       <c r="S157" s="5"/>
     </row>
-    <row r="158" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>140</v>
       </c>
@@ -9045,7 +9062,7 @@
       </c>
       <c r="S162" s="5"/>
     </row>
-    <row r="163" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>141</v>
       </c>
@@ -9098,7 +9115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>142</v>
       </c>
@@ -9112,7 +9129,7 @@
       </c>
       <c r="S164" s="5"/>
     </row>
-    <row r="165" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>143</v>
       </c>
@@ -9146,7 +9163,7 @@
       </c>
       <c r="S165" s="5"/>
     </row>
-    <row r="166" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
         <v>144</v>
       </c>
@@ -9160,7 +9177,7 @@
       </c>
       <c r="S166" s="5"/>
     </row>
-    <row r="167" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>145</v>
       </c>
@@ -9198,7 +9215,7 @@
       </c>
       <c r="S167" s="5"/>
     </row>
-    <row r="168" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>146</v>
       </c>
@@ -9285,7 +9302,7 @@
       </c>
       <c r="S169" s="5"/>
     </row>
-    <row r="170" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>147</v>
       </c>
@@ -9322,7 +9339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>148</v>
       </c>
@@ -9359,7 +9376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>149</v>
       </c>
@@ -9385,7 +9402,7 @@
       </c>
       <c r="S172" s="5"/>
     </row>
-    <row r="173" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>150</v>
       </c>
@@ -9474,7 +9491,7 @@
       </c>
       <c r="S174" s="5"/>
     </row>
-    <row r="175" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>151</v>
       </c>
@@ -9519,7 +9536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>152</v>
       </c>
@@ -9564,7 +9581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>153</v>
       </c>
@@ -9606,7 +9623,7 @@
       </c>
       <c r="S177" s="5"/>
     </row>
-    <row r="178" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>154</v>
       </c>
@@ -9652,7 +9669,7 @@
       </c>
       <c r="S178" s="5"/>
     </row>
-    <row r="179" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>155</v>
       </c>
@@ -9713,7 +9730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>156</v>
       </c>
@@ -9747,7 +9764,7 @@
       </c>
       <c r="S180" s="5"/>
     </row>
-    <row r="181" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>157</v>
       </c>
@@ -9808,7 +9825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>158</v>
       </c>
@@ -9845,7 +9862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>159</v>
       </c>
@@ -9859,7 +9876,7 @@
       </c>
       <c r="S183" s="5"/>
     </row>
-    <row r="184" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>160</v>
       </c>
@@ -9896,7 +9913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>161</v>
       </c>
@@ -9933,7 +9950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>162</v>
       </c>
@@ -9987,6 +10004,40 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I68:I91">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.55000000000000004"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="9"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:D91">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.63"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="9"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="&quot;0,63&quot;"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="9"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DIGITAL PATOLOGY/RANABASE.xlsx
+++ b/DIGITAL PATOLOGY/RANABASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jocar\Desktop\LaboratorioBiofisica\DIGITAL PATOLOGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD03C0FD-5EC1-46FD-A00F-13C214D3F500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A969F-0F26-49C5-86C1-9D040AE03548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DB8236CE-84E3-4A1C-8674-25FDDF96B5DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="168">
   <si>
     <t>Limnonectes limnocharis</t>
   </si>
@@ -537,7 +537,10 @@
     <t>Family Bombinatoridae</t>
   </si>
   <si>
-    <t>ratio</t>
+    <t>RATIO N</t>
+  </si>
+  <si>
+    <t>RATIO C</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -688,6 +691,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,6 +705,7 @@
   <colors>
     <mruColors>
       <color rgb="FFF8696B"/>
+      <color rgb="FF63BE7B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3602,13 +3611,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936CFCE5-C830-4109-9D2B-26A80A32B925}">
   <dimension ref="A1:S186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="M91" sqref="M91"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="14"/>
+    <col min="9" max="9" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -3621,8 +3632,8 @@
       <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>166</v>
+      <c r="D1" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>20</v>
@@ -3636,7 +3647,9 @@
       <c r="H1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="J1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3672,13 +3685,13 @@
       <c r="A2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D2" t="e">
-        <f>C2/B2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" t="e">
-        <f>H2/G2</f>
-        <v>#DIV/0!</v>
+      <c r="D2" s="15" t="str">
+        <f>IF(AND(C2&lt;&gt;"", B2&lt;&gt;""), C2/B2, "")</f>
+        <v/>
+      </c>
+      <c r="I2" s="14" t="str">
+        <f>IF(AND(H2&lt;&gt;"", G2&lt;&gt;""), H2/G2, "")</f>
+        <v/>
       </c>
       <c r="S2" s="5"/>
     </row>
@@ -3686,13 +3699,13 @@
       <c r="A3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D3" t="e">
-        <f t="shared" ref="D3:D66" si="0">C3/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" t="e">
-        <f t="shared" ref="I3:I66" si="1">H3/G3</f>
-        <v>#DIV/0!</v>
+      <c r="D3" s="15" t="str">
+        <f t="shared" ref="D3:D66" si="0">IF(AND(C3&lt;&gt;"", B3&lt;&gt;""), C3/B3, "")</f>
+        <v/>
+      </c>
+      <c r="I3" s="14" t="str">
+        <f t="shared" ref="I3:I66" si="1">IF(AND(H3&lt;&gt;"", G3&lt;&gt;""), H3/G3, "")</f>
+        <v/>
       </c>
       <c r="S3" s="5"/>
     </row>
@@ -3700,13 +3713,13 @@
       <c r="A4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D4" t="e">
+      <c r="D4" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" t="e">
+        <v/>
+      </c>
+      <c r="I4" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S4" s="5"/>
     </row>
@@ -3720,7 +3733,7 @@
       <c r="C5" s="2">
         <v>13.4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>0.70157068062827221</v>
       </c>
@@ -3730,9 +3743,9 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" t="e">
+      <c r="I5" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S5" s="5"/>
     </row>
@@ -3746,7 +3759,7 @@
       <c r="C6" s="2">
         <v>15.6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>0.624</v>
       </c>
@@ -3762,7 +3775,7 @@
       <c r="H6" s="2">
         <v>6.1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="14">
         <f t="shared" si="1"/>
         <v>0.55963302752293576</v>
       </c>
@@ -3796,7 +3809,7 @@
       <c r="C7" s="2">
         <v>19.3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>0.6819787985865724</v>
       </c>
@@ -3808,9 +3821,9 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" t="e">
+      <c r="I7" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3843,13 +3856,13 @@
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="e">
+      <c r="D8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v/>
+      </c>
+      <c r="I8" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S8" s="5"/>
     </row>
@@ -3863,7 +3876,7 @@
       <c r="C9" s="2">
         <v>12.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>0.66844919786096257</v>
       </c>
@@ -3873,9 +3886,9 @@
       <c r="F9" s="2">
         <v>7</v>
       </c>
-      <c r="I9" t="e">
+      <c r="I9" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S9" s="5"/>
     </row>
@@ -3889,7 +3902,7 @@
       <c r="C10" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>0.60624999999999996</v>
       </c>
@@ -3899,9 +3912,9 @@
       <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" t="e">
+      <c r="I10" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S10" s="5"/>
     </row>
@@ -3915,7 +3928,7 @@
       <c r="C11" s="2">
         <v>12.7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>0.52049180327868849</v>
       </c>
@@ -3931,7 +3944,7 @@
       <c r="H11" s="2">
         <v>4.8</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>0.52747252747252749</v>
       </c>
@@ -3968,7 +3981,7 @@
       <c r="C12" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>0.65863453815261042</v>
       </c>
@@ -3978,9 +3991,9 @@
       <c r="F12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" t="e">
+      <c r="I12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S12" s="5"/>
     </row>
@@ -3994,7 +4007,7 @@
       <c r="C13" s="2">
         <v>13.4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>0.70157068062827221</v>
       </c>
@@ -4004,9 +4017,9 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" t="e">
+      <c r="I13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S13" s="5"/>
     </row>
@@ -4016,17 +4029,17 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" t="e">
+      <c r="D14" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" t="e">
+      <c r="I14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -4057,7 +4070,7 @@
       <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>0.6878306878306879</v>
       </c>
@@ -4073,7 +4086,7 @@
       <c r="H15" s="2">
         <v>5.4</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="14">
         <f t="shared" si="1"/>
         <v>0.72000000000000008</v>
       </c>
@@ -4101,7 +4114,7 @@
       <c r="C16" s="2">
         <v>10.3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
         <v>0.54210526315789476</v>
       </c>
@@ -4117,7 +4130,7 @@
       <c r="H16" s="2">
         <v>3.9</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="14">
         <f t="shared" si="1"/>
         <v>0.50649350649350644</v>
       </c>
@@ -4145,7 +4158,7 @@
       <c r="C17" s="2">
         <v>13.4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <f t="shared" si="0"/>
         <v>0.70157068062827221</v>
       </c>
@@ -4157,9 +4170,9 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" t="e">
+      <c r="I17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -4184,13 +4197,13 @@
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="e">
+      <c r="D18" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" t="e">
+        <v/>
+      </c>
+      <c r="I18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S18" s="5"/>
     </row>
@@ -4200,17 +4213,17 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" t="e">
+      <c r="D19" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" t="e">
+      <c r="I19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4235,13 +4248,13 @@
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="e">
+      <c r="D20" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" t="e">
+        <v/>
+      </c>
+      <c r="I20" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S20" s="5"/>
     </row>
@@ -4255,7 +4268,7 @@
       <c r="C21" s="2">
         <v>16.5</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="15">
         <f t="shared" si="0"/>
         <v>0.6470588235294118</v>
       </c>
@@ -4267,9 +4280,9 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" t="e">
+      <c r="I21" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -4300,7 +4313,7 @@
       <c r="C22" s="2">
         <v>10.9</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="15">
         <f t="shared" si="0"/>
         <v>0.61235955056179769</v>
       </c>
@@ -4310,9 +4323,9 @@
       <c r="F22" s="2">
         <v>3</v>
       </c>
-      <c r="I22" t="e">
+      <c r="I22" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S22" s="5"/>
     </row>
@@ -4322,17 +4335,17 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" t="e">
+      <c r="D23" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" t="e">
+      <c r="I23" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4363,7 +4376,7 @@
       <c r="C24" s="2">
         <v>13</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="15">
         <f t="shared" si="0"/>
         <v>0.72222222222222221</v>
       </c>
@@ -4373,9 +4386,9 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="I24" t="e">
+      <c r="I24" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S24" s="5"/>
     </row>
@@ -4389,7 +4402,7 @@
       <c r="C25" s="2">
         <v>15.1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="15">
         <f t="shared" si="0"/>
         <v>1.4245283018867925</v>
       </c>
@@ -4401,9 +4414,9 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" t="e">
+      <c r="I25" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4434,7 +4447,7 @@
       <c r="C26" s="2">
         <v>13.4</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="15">
         <f t="shared" si="0"/>
         <v>0.66009852216748766</v>
       </c>
@@ -4450,7 +4463,7 @@
       <c r="H26" s="2">
         <v>4.5</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="14">
         <f t="shared" si="1"/>
         <v>0.60810810810810811</v>
       </c>
@@ -4472,7 +4485,7 @@
       <c r="C27" s="2">
         <v>13.6</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="15">
         <f t="shared" si="0"/>
         <v>0.65384615384615385</v>
       </c>
@@ -4488,7 +4501,7 @@
       <c r="H27" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="14">
         <f t="shared" si="1"/>
         <v>0.5862068965517242</v>
       </c>
@@ -4510,7 +4523,7 @@
       <c r="C28" s="2">
         <v>12.3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="15">
         <f t="shared" si="0"/>
         <v>0.6542553191489362</v>
       </c>
@@ -4526,7 +4539,7 @@
       <c r="H28" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="14">
         <f t="shared" si="1"/>
         <v>0.65384615384615385</v>
       </c>
@@ -4548,7 +4561,7 @@
       <c r="C29" s="2">
         <v>12</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="15">
         <f t="shared" si="0"/>
         <v>0.57971014492753625</v>
       </c>
@@ -4558,9 +4571,9 @@
       <c r="F29" s="2">
         <v>7</v>
       </c>
-      <c r="I29" t="e">
+      <c r="I29" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S29" s="5"/>
     </row>
@@ -4574,7 +4587,7 @@
       <c r="C30" s="2">
         <v>12.7</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="15">
         <f t="shared" si="0"/>
         <v>0.64141414141414133</v>
       </c>
@@ -4584,9 +4597,9 @@
       <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" t="e">
+      <c r="I30" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S30" s="5"/>
     </row>
@@ -4600,7 +4613,7 @@
       <c r="C31" s="2">
         <v>14</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="15">
         <f t="shared" si="0"/>
         <v>0.71794871794871795</v>
       </c>
@@ -4610,9 +4623,9 @@
       <c r="F31" s="2">
         <v>2</v>
       </c>
-      <c r="I31" t="e">
+      <c r="I31" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S31" s="5"/>
     </row>
@@ -4626,7 +4639,7 @@
       <c r="C32" s="2">
         <v>14.8</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="15">
         <f t="shared" si="0"/>
         <v>0.67889908256880738</v>
       </c>
@@ -4636,9 +4649,9 @@
       <c r="F32" s="2">
         <v>2</v>
       </c>
-      <c r="I32" t="e">
+      <c r="I32" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S32" s="5"/>
     </row>
@@ -4652,7 +4665,7 @@
       <c r="C33" s="2">
         <v>10.8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="15">
         <f t="shared" si="0"/>
         <v>0.6352941176470589</v>
       </c>
@@ -4662,9 +4675,9 @@
       <c r="F33" s="2">
         <v>2</v>
       </c>
-      <c r="I33" t="e">
+      <c r="I33" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S33" s="5"/>
     </row>
@@ -4678,7 +4691,7 @@
       <c r="C34" s="2">
         <v>12.5</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="15">
         <f t="shared" si="0"/>
         <v>0.66844919786096257</v>
       </c>
@@ -4688,9 +4701,9 @@
       <c r="F34" s="2">
         <v>7</v>
       </c>
-      <c r="I34" t="e">
+      <c r="I34" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S34" s="5"/>
     </row>
@@ -4704,7 +4717,7 @@
       <c r="C35" s="2">
         <v>11.2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="15">
         <f t="shared" si="0"/>
         <v>0.57731958762886604</v>
       </c>
@@ -4714,9 +4727,9 @@
       <c r="F35" s="2">
         <v>3</v>
       </c>
-      <c r="I35" t="e">
+      <c r="I35" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S35" s="5"/>
     </row>
@@ -4730,7 +4743,7 @@
       <c r="C36" s="2">
         <v>10</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="15">
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
@@ -4740,9 +4753,9 @@
       <c r="F36" s="2">
         <v>3</v>
       </c>
-      <c r="I36" t="e">
+      <c r="I36" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S36" s="5"/>
     </row>
@@ -4750,13 +4763,13 @@
       <c r="A37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D37" t="e">
+      <c r="D37" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" t="e">
+        <v/>
+      </c>
+      <c r="I37" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S37" s="5"/>
     </row>
@@ -4766,17 +4779,17 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" t="e">
+      <c r="D38" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" t="e">
+      <c r="I38" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -4801,13 +4814,13 @@
       <c r="A39" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D39" t="e">
+      <c r="D39" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" t="e">
+        <v/>
+      </c>
+      <c r="I39" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S39" s="5"/>
     </row>
@@ -4817,17 +4830,17 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" t="e">
+      <c r="D40" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" t="e">
+      <c r="I40" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4854,17 +4867,17 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" t="e">
+      <c r="D41" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" t="e">
+      <c r="I41" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4888,17 +4901,17 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" t="e">
+      <c r="D42" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" t="e">
+      <c r="I42" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -4923,13 +4936,13 @@
       <c r="A43" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D43" t="e">
+      <c r="D43" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" t="e">
+        <v/>
+      </c>
+      <c r="I43" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S43" s="5"/>
     </row>
@@ -4939,17 +4952,17 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" t="e">
+      <c r="D44" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" t="e">
+      <c r="I44" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -4974,13 +4987,13 @@
       <c r="A45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D45" t="e">
+      <c r="D45" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" t="e">
+        <v/>
+      </c>
+      <c r="I45" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S45" s="5"/>
     </row>
@@ -4994,7 +5007,7 @@
       <c r="C46" s="2">
         <v>13.1</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="15">
         <f t="shared" si="0"/>
         <v>0.59817351598173518</v>
       </c>
@@ -5010,7 +5023,7 @@
       <c r="H46" s="2">
         <v>5.4</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="14">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
@@ -5028,17 +5041,17 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" t="e">
+      <c r="D47" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" t="e">
+      <c r="I47" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -5063,13 +5076,13 @@
       <c r="A48" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D48" t="e">
+      <c r="D48" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" t="e">
+        <v/>
+      </c>
+      <c r="I48" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S48" s="5"/>
     </row>
@@ -5079,17 +5092,17 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" t="e">
+      <c r="D49" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" t="e">
+      <c r="I49" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -5120,7 +5133,7 @@
       <c r="C50" s="2">
         <v>13.5</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="15">
         <f t="shared" si="0"/>
         <v>0.66502463054187189</v>
       </c>
@@ -5130,9 +5143,9 @@
       <c r="F50" s="2">
         <v>2</v>
       </c>
-      <c r="I50" t="e">
+      <c r="I50" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S50" s="5"/>
     </row>
@@ -5146,7 +5159,7 @@
       <c r="C51" s="2">
         <v>12.5</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="15">
         <f t="shared" si="0"/>
         <v>0.66489361702127658</v>
       </c>
@@ -5156,9 +5169,9 @@
       <c r="F51" s="2">
         <v>2</v>
       </c>
-      <c r="I51" t="e">
+      <c r="I51" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S51" s="5"/>
     </row>
@@ -5168,17 +5181,17 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" t="e">
+      <c r="D52" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" t="e">
+      <c r="I52" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -5209,7 +5222,7 @@
       <c r="C53" s="2">
         <v>10.8</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="15">
         <f t="shared" si="0"/>
         <v>0.66257668711656448</v>
       </c>
@@ -5219,9 +5232,9 @@
       <c r="F53" s="2">
         <v>2</v>
       </c>
-      <c r="I53" t="e">
+      <c r="I53" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S53" s="5"/>
     </row>
@@ -5231,17 +5244,17 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" t="e">
+      <c r="D54" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" t="e">
+      <c r="I54" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -5268,17 +5281,17 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" t="e">
+      <c r="D55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" t="e">
+      <c r="I55" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -5305,17 +5318,17 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" t="e">
+      <c r="D56" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" t="e">
+      <c r="I56" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -5346,7 +5359,7 @@
       <c r="C57" s="2">
         <v>14</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="15">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
@@ -5358,9 +5371,9 @@
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" t="e">
+      <c r="I57" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -5391,7 +5404,7 @@
       <c r="C58" s="2">
         <v>13.5</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="15">
         <f t="shared" si="0"/>
         <v>0.71052631578947367</v>
       </c>
@@ -5401,9 +5414,9 @@
       <c r="F58" s="2">
         <v>2</v>
       </c>
-      <c r="I58" t="e">
+      <c r="I58" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S58" s="5"/>
     </row>
@@ -5411,13 +5424,13 @@
       <c r="A59" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D59" t="e">
+      <c r="D59" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" t="e">
+        <v/>
+      </c>
+      <c r="I59" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S59" s="5"/>
     </row>
@@ -5427,17 +5440,17 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" t="e">
+      <c r="D60" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" t="e">
+      <c r="I60" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -5464,17 +5477,17 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" t="e">
+      <c r="D61" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" t="e">
+      <c r="I61" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -5499,13 +5512,13 @@
       <c r="A62" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D62" t="e">
+      <c r="D62" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" t="e">
+        <v/>
+      </c>
+      <c r="I62" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S62" s="5"/>
     </row>
@@ -5515,17 +5528,17 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" t="e">
+      <c r="D63" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" t="e">
+      <c r="I63" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -5552,17 +5565,17 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" t="e">
+      <c r="D64" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" t="e">
+      <c r="I64" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -5590,7 +5603,7 @@
       <c r="C65" s="2">
         <v>9.5</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="15">
         <f t="shared" si="0"/>
         <v>0.59375</v>
       </c>
@@ -5606,7 +5619,7 @@
       <c r="H65" s="2">
         <v>3.6</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="14">
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
@@ -5651,7 +5664,7 @@
       <c r="C66" s="2">
         <v>13.6</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="15">
         <f t="shared" si="0"/>
         <v>0.69035532994923854</v>
       </c>
@@ -5661,9 +5674,9 @@
       <c r="F66" s="2">
         <v>10</v>
       </c>
-      <c r="I66" t="e">
+      <c r="I66" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S66" s="5"/>
     </row>
@@ -5673,17 +5686,17 @@
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="9" t="e">
-        <f t="shared" ref="D67:D130" si="2">C67/B67</f>
-        <v>#DIV/0!</v>
+      <c r="D67" s="15" t="str">
+        <f t="shared" ref="D67:D130" si="2">IF(AND(C67&lt;&gt;"", B67&lt;&gt;""), C67/B67, "")</f>
+        <v/>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="9" t="e">
-        <f t="shared" ref="I67:I130" si="3">H67/G67</f>
-        <v>#DIV/0!</v>
+      <c r="I67" s="14" t="str">
+        <f t="shared" ref="I67:I130" si="3">IF(AND(H67&lt;&gt;"", G67&lt;&gt;""), H67/G67, "")</f>
+        <v/>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -5706,7 +5719,7 @@
       <c r="C68" s="11">
         <v>13.2</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="15">
         <f t="shared" si="2"/>
         <v>0.6734693877551019</v>
       </c>
@@ -5722,7 +5735,7 @@
       <c r="H68" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="14">
         <f t="shared" si="3"/>
         <v>0.620253164556962</v>
       </c>
@@ -5747,17 +5760,17 @@
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="9" t="e">
+      <c r="D69" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
-      <c r="I69" s="9" t="e">
+      <c r="I69" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
@@ -5784,7 +5797,7 @@
       <c r="C70" s="11">
         <v>12.4</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="15">
         <f t="shared" si="2"/>
         <v>0.496</v>
       </c>
@@ -5800,7 +5813,7 @@
       <c r="H70" s="11">
         <v>5.7</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="14">
         <f t="shared" si="3"/>
         <v>0.5757575757575758</v>
       </c>
@@ -5833,7 +5846,7 @@
       <c r="C71" s="11">
         <v>15.3</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="15">
         <f t="shared" si="2"/>
         <v>0.61693548387096775</v>
       </c>
@@ -5845,9 +5858,9 @@
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
-      <c r="I71" s="9" t="e">
+      <c r="I71" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
@@ -5874,7 +5887,7 @@
       <c r="C72" s="11">
         <v>13.5</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="15">
         <f t="shared" si="2"/>
         <v>0.51724137931034475</v>
       </c>
@@ -5890,7 +5903,7 @@
       <c r="H72" s="11">
         <v>5.6</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="14">
         <f t="shared" si="3"/>
         <v>0.55999999999999994</v>
       </c>
@@ -5919,7 +5932,7 @@
       <c r="C73" s="11">
         <v>15.4</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="15">
         <f t="shared" si="2"/>
         <v>0.55197132616487454</v>
       </c>
@@ -5935,7 +5948,7 @@
       <c r="H73" s="11">
         <v>5.6</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="14">
         <f t="shared" si="3"/>
         <v>0.5436893203883495</v>
       </c>
@@ -5964,7 +5977,7 @@
       <c r="C74" s="11">
         <v>14.2</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="15">
         <f t="shared" si="2"/>
         <v>0.55252918287937747</v>
       </c>
@@ -5976,9 +5989,9 @@
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="9" t="e">
+      <c r="I74" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -6001,7 +6014,7 @@
       <c r="C75" s="11">
         <v>15</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="15">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
@@ -6013,9 +6026,9 @@
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="9" t="e">
+      <c r="I75" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -6038,7 +6051,7 @@
       <c r="C76" s="11">
         <v>11.9</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="15">
         <f t="shared" si="2"/>
         <v>0.5173913043478261</v>
       </c>
@@ -6050,9 +6063,9 @@
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="9" t="e">
+      <c r="I76" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -6075,7 +6088,7 @@
       <c r="C77" s="11">
         <v>17.600000000000001</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="15">
         <f t="shared" si="2"/>
         <v>0.69291338582677175</v>
       </c>
@@ -6087,9 +6100,9 @@
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
-      <c r="I77" s="9" t="e">
+      <c r="I77" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
@@ -6120,17 +6133,17 @@
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="9" t="e">
+      <c r="D78" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
-      <c r="I78" s="9" t="e">
+      <c r="I78" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
@@ -6161,7 +6174,7 @@
       <c r="C79" s="11">
         <v>14.3</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="15">
         <f t="shared" si="2"/>
         <v>0.65596330275229364</v>
       </c>
@@ -6177,7 +6190,7 @@
       <c r="H79" s="11">
         <v>5.3</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="14">
         <f t="shared" si="3"/>
         <v>0.5955056179775281</v>
       </c>
@@ -6206,7 +6219,7 @@
       <c r="C80" s="11">
         <v>14.3</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="15">
         <f t="shared" si="2"/>
         <v>0.65596330275229364</v>
       </c>
@@ -6222,7 +6235,7 @@
       <c r="H80" s="11">
         <v>5.5</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="14">
         <f t="shared" si="3"/>
         <v>0.59139784946236551</v>
       </c>
@@ -6251,7 +6264,7 @@
       <c r="C81" s="11">
         <v>12.7</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="15">
         <f t="shared" si="2"/>
         <v>0.62254901960784315</v>
       </c>
@@ -6263,9 +6276,9 @@
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="9" t="e">
+      <c r="I81" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -6288,7 +6301,7 @@
       <c r="C82" s="11">
         <v>12.2</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="15">
         <f t="shared" si="2"/>
         <v>0.56744186046511624</v>
       </c>
@@ -6304,7 +6317,7 @@
       <c r="H82" s="11">
         <v>5.2</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I82" s="14">
         <f t="shared" si="3"/>
         <v>0.59090909090909083</v>
       </c>
@@ -6345,7 +6358,7 @@
       <c r="C83" s="11">
         <v>16.2</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="15">
         <f t="shared" si="2"/>
         <v>0.68067226890756294</v>
       </c>
@@ -6357,9 +6370,9 @@
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
-      <c r="I83" s="9" t="e">
+      <c r="I83" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
@@ -6386,7 +6399,7 @@
       <c r="C84" s="11">
         <v>13.2</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="15">
         <f t="shared" si="2"/>
         <v>0.64390243902439026</v>
       </c>
@@ -6398,9 +6411,9 @@
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="9" t="e">
+      <c r="I84" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -6423,7 +6436,7 @@
       <c r="C85" s="11">
         <v>14.9</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="15">
         <f t="shared" si="2"/>
         <v>0.65065502183406121</v>
       </c>
@@ -6439,7 +6452,7 @@
       <c r="H85" s="11">
         <v>5.4</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="14">
         <f t="shared" si="3"/>
         <v>0.6352941176470589</v>
       </c>
@@ -6468,7 +6481,7 @@
       <c r="C86" s="11">
         <v>16.100000000000001</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="15">
         <f t="shared" si="2"/>
         <v>0.60526315789473684</v>
       </c>
@@ -6484,7 +6497,7 @@
       <c r="H86" s="11">
         <v>6.4</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I86" s="14">
         <f t="shared" si="3"/>
         <v>0.53333333333333333</v>
       </c>
@@ -6513,7 +6526,7 @@
       <c r="C87" s="11">
         <v>16.5</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="15">
         <f t="shared" si="2"/>
         <v>0.6470588235294118</v>
       </c>
@@ -6525,9 +6538,9 @@
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="9" t="e">
+      <c r="I87" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -6550,7 +6563,7 @@
       <c r="C88" s="11">
         <v>14.2</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="15">
         <f t="shared" si="2"/>
         <v>0.57959183673469383</v>
       </c>
@@ -6566,7 +6579,7 @@
       <c r="H88" s="11">
         <v>5.7</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="14">
         <f t="shared" si="3"/>
         <v>0.57000000000000006</v>
       </c>
@@ -6595,7 +6608,7 @@
       <c r="C89" s="11">
         <v>13.9</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="15">
         <f t="shared" si="2"/>
         <v>0.60698689956331886</v>
       </c>
@@ -6611,7 +6624,7 @@
       <c r="H89" s="11">
         <v>4</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="14">
         <f t="shared" si="3"/>
         <v>0.48780487804878053</v>
       </c>
@@ -6640,7 +6653,7 @@
       <c r="C90" s="11">
         <v>16.899999999999999</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="15">
         <f t="shared" si="2"/>
         <v>0.68699186991869909</v>
       </c>
@@ -6652,9 +6665,9 @@
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="9" t="e">
+      <c r="I90" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -6677,7 +6690,7 @@
       <c r="C91" s="11">
         <v>14.2</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="15">
         <f t="shared" si="2"/>
         <v>0.63963963963963966</v>
       </c>
@@ -6693,7 +6706,7 @@
       <c r="H91" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="14">
         <f t="shared" si="3"/>
         <v>0.5368421052631579</v>
       </c>
@@ -6716,13 +6729,13 @@
       <c r="A92" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D92" t="e">
+      <c r="D92" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I92" t="e">
+        <v/>
+      </c>
+      <c r="I92" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S92" s="5"/>
     </row>
@@ -6736,7 +6749,7 @@
       <c r="C93" s="2">
         <v>13</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="15">
         <f t="shared" si="2"/>
         <v>0.65656565656565657</v>
       </c>
@@ -6752,7 +6765,7 @@
       <c r="H93" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="14">
         <f t="shared" si="3"/>
         <v>0.67999999999999994</v>
       </c>
@@ -6774,7 +6787,7 @@
       <c r="C94" s="2">
         <v>12.7</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="15">
         <f t="shared" si="2"/>
         <v>0.63500000000000001</v>
       </c>
@@ -6790,7 +6803,7 @@
       <c r="H94" s="2">
         <v>5</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="14">
         <f t="shared" si="3"/>
         <v>0.63291139240506322</v>
       </c>
@@ -6812,7 +6825,7 @@
       <c r="C95" s="2">
         <v>13.3</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="15">
         <f t="shared" si="2"/>
         <v>0.6157407407407407</v>
       </c>
@@ -6828,7 +6841,7 @@
       <c r="H95" s="2">
         <v>4.8</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="14">
         <f t="shared" si="3"/>
         <v>0.5393258426966292</v>
       </c>
@@ -6844,13 +6857,13 @@
       <c r="A96" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D96" t="e">
+      <c r="D96" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I96" t="e">
+        <v/>
+      </c>
+      <c r="I96" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S96" s="5"/>
     </row>
@@ -6858,13 +6871,13 @@
       <c r="A97" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D97" t="e">
+      <c r="D97" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I97" t="e">
+        <v/>
+      </c>
+      <c r="I97" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S97" s="5"/>
     </row>
@@ -6878,7 +6891,7 @@
       <c r="C98" s="2">
         <v>15.6</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="15">
         <f t="shared" si="2"/>
         <v>0.70588235294117641</v>
       </c>
@@ -6890,9 +6903,9 @@
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" t="e">
+      <c r="I98" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -6908,13 +6921,13 @@
       <c r="A99" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D99" t="e">
+      <c r="D99" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I99" t="e">
+        <v/>
+      </c>
+      <c r="I99" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S99" s="5"/>
     </row>
@@ -6922,13 +6935,13 @@
       <c r="A100" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D100" t="e">
+      <c r="D100" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" t="e">
+        <v/>
+      </c>
+      <c r="I100" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S100" s="5"/>
     </row>
@@ -6938,17 +6951,17 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" t="e">
+      <c r="D101" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-      <c r="I101" t="e">
+      <c r="I101" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
@@ -6979,7 +6992,7 @@
       <c r="C102" s="2">
         <v>22.2</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="15">
         <f t="shared" si="2"/>
         <v>0.58115183246073288</v>
       </c>
@@ -6991,9 +7004,9 @@
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-      <c r="I102" t="e">
+      <c r="I102" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -7024,7 +7037,7 @@
       <c r="C103" s="2">
         <v>23.9</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="15">
         <f t="shared" si="2"/>
         <v>0.63060686015831136</v>
       </c>
@@ -7034,9 +7047,9 @@
       <c r="F103" s="2">
         <v>5</v>
       </c>
-      <c r="I103" t="e">
+      <c r="I103" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S103" s="5"/>
     </row>
@@ -7050,7 +7063,7 @@
       <c r="C104" s="2">
         <v>25.4</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="15">
         <f t="shared" si="2"/>
         <v>0.57078651685393256</v>
       </c>
@@ -7066,7 +7079,7 @@
       <c r="H104" s="2">
         <v>8.5</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="14">
         <f t="shared" si="3"/>
         <v>0.6692913385826772</v>
       </c>
@@ -7088,7 +7101,7 @@
       <c r="C105" s="2">
         <v>20</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="15">
         <f t="shared" si="2"/>
         <v>0.60975609756097571</v>
       </c>
@@ -7104,7 +7117,7 @@
       <c r="H105" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="14">
         <f t="shared" si="3"/>
         <v>0.6518518518518519</v>
       </c>
@@ -7126,7 +7139,7 @@
       <c r="C106" s="2">
         <v>28.2</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="15">
         <f t="shared" si="2"/>
         <v>0.73629242819843344</v>
       </c>
@@ -7136,9 +7149,9 @@
       <c r="F106" s="2">
         <v>10</v>
       </c>
-      <c r="I106" t="e">
+      <c r="I106" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S106" s="5"/>
     </row>
@@ -7148,17 +7161,17 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" t="e">
+      <c r="D107" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
-      <c r="I107" t="e">
+      <c r="I107" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -7185,17 +7198,17 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" t="e">
+      <c r="D108" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
-      <c r="I108" t="e">
+      <c r="I108" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -7222,17 +7235,17 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" t="e">
+      <c r="D109" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
-      <c r="I109" t="e">
+      <c r="I109" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -7263,7 +7276,7 @@
       <c r="C110" s="2">
         <v>15.1</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="15">
         <f t="shared" si="2"/>
         <v>0.53736654804270456</v>
       </c>
@@ -7279,7 +7292,7 @@
       <c r="H110" s="2">
         <v>7</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="14">
         <f t="shared" si="3"/>
         <v>0.59829059829059827</v>
       </c>
@@ -7307,7 +7320,7 @@
       <c r="C111" s="2">
         <v>20.2</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="15">
         <f t="shared" si="2"/>
         <v>0.55342465753424652</v>
       </c>
@@ -7317,9 +7330,9 @@
       <c r="F111" s="2">
         <v>7</v>
       </c>
-      <c r="I111" t="e">
+      <c r="I111" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S111" s="5"/>
     </row>
@@ -7333,7 +7346,7 @@
       <c r="C112" s="2">
         <v>19</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="15">
         <f t="shared" si="2"/>
         <v>0.55072463768115942</v>
       </c>
@@ -7343,9 +7356,9 @@
       <c r="F112" s="2">
         <v>5</v>
       </c>
-      <c r="I112" t="e">
+      <c r="I112" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S112" s="5"/>
     </row>
@@ -7353,13 +7366,13 @@
       <c r="A113" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D113" t="e">
+      <c r="D113" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I113" t="e">
+        <v/>
+      </c>
+      <c r="I113" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S113" s="5"/>
     </row>
@@ -7373,7 +7386,7 @@
       <c r="C114" s="2">
         <v>32.5</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="15">
         <f t="shared" si="2"/>
         <v>0.59963099630996308</v>
       </c>
@@ -7389,7 +7402,7 @@
       <c r="H114" s="2">
         <v>15.3</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="14">
         <f t="shared" si="3"/>
         <v>0.62962962962962965</v>
       </c>
@@ -7417,7 +7430,7 @@
       <c r="C115" s="2">
         <v>36.299999999999997</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="15">
         <f t="shared" si="2"/>
         <v>0.58079999999999998</v>
       </c>
@@ -7429,9 +7442,9 @@
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
-      <c r="I115" t="e">
+      <c r="I115" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -7466,7 +7479,7 @@
       <c r="C116" s="2">
         <v>29.9</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="15">
         <f t="shared" si="2"/>
         <v>0.55783582089552231</v>
       </c>
@@ -7482,7 +7495,7 @@
       <c r="H116" s="2">
         <v>12.9</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="14">
         <f t="shared" si="3"/>
         <v>0.62621359223300965</v>
       </c>
@@ -7504,7 +7517,7 @@
       <c r="C117" s="2">
         <v>36.700000000000003</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="15">
         <f t="shared" si="2"/>
         <v>0.59385113268608425</v>
       </c>
@@ -7514,9 +7527,9 @@
       <c r="F117" s="2">
         <v>3</v>
       </c>
-      <c r="I117" t="e">
+      <c r="I117" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S117" s="5"/>
     </row>
@@ -7530,7 +7543,7 @@
       <c r="C118" s="2">
         <v>41.3</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="15">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
@@ -7546,7 +7559,7 @@
       <c r="H118" s="2">
         <v>12.7</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="14">
         <f t="shared" si="3"/>
         <v>0.57207207207207211</v>
       </c>
@@ -7568,7 +7581,7 @@
       <c r="C119" s="2">
         <v>36.6</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="15">
         <f t="shared" si="2"/>
         <v>0.56049004594180707</v>
       </c>
@@ -7584,7 +7597,7 @@
       <c r="H119" s="2">
         <v>16.8</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="14">
         <f t="shared" si="3"/>
         <v>0.63636363636363646</v>
       </c>
@@ -7600,13 +7613,13 @@
       <c r="A120" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D120" t="e">
+      <c r="D120" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I120" t="e">
+        <v/>
+      </c>
+      <c r="I120" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S120" s="5"/>
     </row>
@@ -7616,17 +7629,17 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" t="e">
+      <c r="D121" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
-      <c r="I121" t="e">
+      <c r="I121" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
@@ -7653,17 +7666,17 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" t="e">
+      <c r="D122" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" t="e">
+      <c r="I122" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
@@ -7694,7 +7707,7 @@
       <c r="C123" s="2">
         <v>25.4</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="15">
         <f t="shared" si="2"/>
         <v>0.63979848866498734</v>
       </c>
@@ -7710,7 +7723,7 @@
       <c r="H123" s="2">
         <v>10</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="14">
         <f t="shared" si="3"/>
         <v>0.46728971962616828</v>
       </c>
@@ -7738,7 +7751,7 @@
       <c r="C124" s="2">
         <v>21</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="15">
         <f t="shared" si="2"/>
         <v>0.51851851851851849</v>
       </c>
@@ -7750,9 +7763,9 @@
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
-      <c r="I124" t="e">
+      <c r="I124" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
@@ -7774,7 +7787,7 @@
       <c r="C125" s="2">
         <v>25.4</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="15">
         <f t="shared" si="2"/>
         <v>0.56319290465631922</v>
       </c>
@@ -7790,7 +7803,7 @@
       <c r="H125" s="2">
         <v>11.1</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="14">
         <f t="shared" si="3"/>
         <v>0.58115183246073288</v>
       </c>
@@ -7812,7 +7825,7 @@
       <c r="C126" s="2">
         <v>23.2</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="15">
         <f t="shared" si="2"/>
         <v>0.56447688564476883</v>
       </c>
@@ -7822,9 +7835,9 @@
       <c r="F126" s="2">
         <v>3</v>
       </c>
-      <c r="I126" t="e">
+      <c r="I126" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S126" s="5"/>
     </row>
@@ -7832,13 +7845,13 @@
       <c r="A127" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D127" t="e">
+      <c r="D127" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I127" t="e">
+        <v/>
+      </c>
+      <c r="I127" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S127" s="5"/>
     </row>
@@ -7852,7 +7865,7 @@
       <c r="C128" s="2">
         <v>29.3</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="15">
         <f t="shared" si="2"/>
         <v>0.57003891050583666</v>
       </c>
@@ -7864,9 +7877,9 @@
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
-      <c r="I128" t="e">
+      <c r="I128" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
@@ -7882,13 +7895,13 @@
       <c r="A129" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D129" t="e">
+      <c r="D129" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I129" t="e">
+        <v/>
+      </c>
+      <c r="I129" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S129" s="5"/>
     </row>
@@ -7898,17 +7911,17 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" t="e">
+      <c r="D130" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
-      <c r="I130" t="e">
+      <c r="I130" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
@@ -7935,17 +7948,17 @@
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" t="e">
-        <f t="shared" ref="D131:D186" si="4">C131/B131</f>
-        <v>#DIV/0!</v>
+      <c r="D131" s="15" t="str">
+        <f t="shared" ref="D131:D186" si="4">IF(AND(C131&lt;&gt;"", B131&lt;&gt;""), C131/B131, "")</f>
+        <v/>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-      <c r="I131" t="e">
-        <f t="shared" ref="I131:I186" si="5">H131/G131</f>
-        <v>#DIV/0!</v>
+      <c r="I131" s="14" t="str">
+        <f t="shared" ref="I131:I186" si="5">IF(AND(H131&lt;&gt;"", G131&lt;&gt;""), H131/G131, "")</f>
+        <v/>
       </c>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
@@ -7976,7 +7989,7 @@
       <c r="C132" s="2">
         <v>17.2</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="15">
         <f t="shared" si="4"/>
         <v>0.52121212121212124</v>
       </c>
@@ -7992,7 +8005,7 @@
       <c r="H132" s="2">
         <v>7.8</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="14">
         <f t="shared" si="5"/>
         <v>0.57352941176470584</v>
       </c>
@@ -8025,17 +8038,17 @@
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" t="e">
+      <c r="D133" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-      <c r="I133" t="e">
+      <c r="I133" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
@@ -8066,7 +8079,7 @@
       <c r="C134" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="15">
         <f t="shared" si="4"/>
         <v>0.55351681957186549</v>
       </c>
@@ -8082,7 +8095,7 @@
       <c r="H134" s="2">
         <v>8</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="14">
         <f t="shared" si="5"/>
         <v>0.59701492537313428</v>
       </c>
@@ -8104,7 +8117,7 @@
       <c r="C135" s="2">
         <v>23.4</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="15">
         <f t="shared" si="4"/>
         <v>0.5404157043879908</v>
       </c>
@@ -8120,7 +8133,7 @@
       <c r="H135" s="2">
         <v>11.1</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="14">
         <f t="shared" si="5"/>
         <v>0.56345177664974622</v>
       </c>
@@ -8136,13 +8149,13 @@
       <c r="A136" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D136" t="e">
+      <c r="D136" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I136" t="e">
+        <v/>
+      </c>
+      <c r="I136" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S136" s="5"/>
     </row>
@@ -8152,17 +8165,17 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" t="e">
+      <c r="D137" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
-      <c r="I137" t="e">
+      <c r="I137" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
@@ -8189,17 +8202,17 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" t="e">
+      <c r="D138" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
-      <c r="I138" t="e">
+      <c r="I138" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
@@ -8230,7 +8243,7 @@
       <c r="C139" s="2">
         <v>12.7</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="15">
         <f t="shared" si="4"/>
         <v>0.41368078175895762</v>
       </c>
@@ -8240,9 +8253,9 @@
       <c r="F139" s="2">
         <v>5</v>
       </c>
-      <c r="I139" t="e">
+      <c r="I139" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S139" s="5"/>
     </row>
@@ -8252,17 +8265,17 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" t="e">
+      <c r="D140" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
-      <c r="I140" t="e">
+      <c r="I140" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
@@ -8289,17 +8302,17 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" t="e">
+      <c r="D141" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
-      <c r="I141" t="e">
+      <c r="I141" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
@@ -8330,7 +8343,7 @@
       <c r="C142" s="2">
         <v>14.9</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="15">
         <f t="shared" si="4"/>
         <v>0.50680272108843538</v>
       </c>
@@ -8340,9 +8353,9 @@
       <c r="F142" s="2">
         <v>5</v>
       </c>
-      <c r="I142" t="e">
+      <c r="I142" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S142" s="5"/>
     </row>
@@ -8356,7 +8369,7 @@
       <c r="C143" s="2">
         <v>21</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="15">
         <f t="shared" si="4"/>
         <v>0.59154929577464788</v>
       </c>
@@ -8366,9 +8379,9 @@
       <c r="F143" s="2">
         <v>7</v>
       </c>
-      <c r="I143" t="e">
+      <c r="I143" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S143" s="5"/>
     </row>
@@ -8382,7 +8395,7 @@
       <c r="C144" s="2">
         <v>16.7</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="15">
         <f t="shared" si="4"/>
         <v>0.52187499999999998</v>
       </c>
@@ -8392,9 +8405,9 @@
       <c r="F144" s="2">
         <v>5</v>
       </c>
-      <c r="I144" t="e">
+      <c r="I144" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S144" s="5"/>
     </row>
@@ -8404,17 +8417,17 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" t="e">
+      <c r="D145" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
-      <c r="I145" t="e">
+      <c r="I145" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
@@ -8445,7 +8458,7 @@
       <c r="C146" s="2">
         <v>16.7</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="15">
         <f t="shared" si="4"/>
         <v>0.49117647058823527</v>
       </c>
@@ -8457,9 +8470,9 @@
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
-      <c r="I146" t="e">
+      <c r="I146" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
@@ -8490,7 +8503,7 @@
       <c r="C147" s="2">
         <v>22</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="15">
         <f t="shared" si="4"/>
         <v>0.60439560439560447</v>
       </c>
@@ -8502,9 +8515,9 @@
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
-      <c r="I147" t="e">
+      <c r="I147" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
@@ -8531,17 +8544,17 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
-      <c r="D148" t="e">
+      <c r="D148" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
-      <c r="I148" t="e">
+      <c r="I148" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
@@ -8572,7 +8585,7 @@
       <c r="C149" s="2">
         <v>21</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="15">
         <f t="shared" si="4"/>
         <v>0.56149732620320858</v>
       </c>
@@ -8584,9 +8597,9 @@
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
-      <c r="I149" t="e">
+      <c r="I149" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
@@ -8613,17 +8626,17 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" t="e">
+      <c r="D150" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
-      <c r="I150" t="e">
+      <c r="I150" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
@@ -8654,7 +8667,7 @@
       <c r="C151" s="2">
         <v>17</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="15">
         <f t="shared" si="4"/>
         <v>0.52631578947368429</v>
       </c>
@@ -8666,9 +8679,9 @@
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
-      <c r="I151" t="e">
+      <c r="I151" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
@@ -8707,7 +8720,7 @@
       <c r="C152" s="2">
         <v>16.3</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="15">
         <f t="shared" si="4"/>
         <v>0.53094462540716614</v>
       </c>
@@ -8717,9 +8730,9 @@
       <c r="F152" s="2">
         <v>5</v>
       </c>
-      <c r="I152" t="e">
+      <c r="I152" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S152" s="5"/>
     </row>
@@ -8733,7 +8746,7 @@
       <c r="C153" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="15">
         <f t="shared" si="4"/>
         <v>0.54037267080745333</v>
       </c>
@@ -8743,9 +8756,9 @@
       <c r="F153" s="2">
         <v>5</v>
       </c>
-      <c r="I153" t="e">
+      <c r="I153" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S153" s="5"/>
     </row>
@@ -8755,17 +8768,17 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" t="e">
+      <c r="D154" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
-      <c r="I154" t="e">
+      <c r="I154" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
@@ -8793,7 +8806,7 @@
       <c r="C155" s="2">
         <v>20.2</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="15">
         <f t="shared" si="4"/>
         <v>0.60479041916167664</v>
       </c>
@@ -8805,9 +8818,9 @@
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
-      <c r="I155" t="e">
+      <c r="I155" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
@@ -8834,17 +8847,17 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
-      <c r="D156" t="e">
+      <c r="D156" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
-      <c r="I156" t="e">
+      <c r="I156" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
@@ -8869,13 +8882,13 @@
       <c r="A157" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D157" t="e">
+      <c r="D157" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I157" t="e">
+        <v/>
+      </c>
+      <c r="I157" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S157" s="5"/>
     </row>
@@ -8889,7 +8902,7 @@
       <c r="C158" s="2">
         <v>26.3</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="15">
         <f t="shared" si="4"/>
         <v>0.48523985239852396</v>
       </c>
@@ -8905,7 +8918,7 @@
       <c r="H158" s="2">
         <v>13.8</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="14">
         <f t="shared" si="5"/>
         <v>0.54761904761904767</v>
       </c>
@@ -8933,7 +8946,7 @@
       <c r="C159" s="2">
         <v>28.2</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="15">
         <f t="shared" si="4"/>
         <v>0.53409090909090906</v>
       </c>
@@ -8945,9 +8958,9 @@
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
-      <c r="I159" t="e">
+      <c r="I159" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
@@ -8982,7 +8995,7 @@
       <c r="C160" s="2">
         <v>38.1</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="15">
         <f t="shared" si="4"/>
         <v>0.67553191489361708</v>
       </c>
@@ -8998,7 +9011,7 @@
       <c r="H160" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="14">
         <f t="shared" si="5"/>
         <v>0.57615894039735094</v>
       </c>
@@ -9020,7 +9033,7 @@
       <c r="C161" s="2">
         <v>28.6</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="15">
         <f t="shared" si="4"/>
         <v>0.53558052434456938</v>
       </c>
@@ -9030,9 +9043,9 @@
       <c r="F161" s="2">
         <v>3</v>
       </c>
-      <c r="I161" t="e">
+      <c r="I161" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S161" s="5"/>
     </row>
@@ -9046,7 +9059,7 @@
       <c r="C162" s="2">
         <v>28.2</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="15">
         <f t="shared" si="4"/>
         <v>0.6962962962962963</v>
       </c>
@@ -9056,9 +9069,9 @@
       <c r="F162" s="2">
         <v>5</v>
       </c>
-      <c r="I162" t="e">
+      <c r="I162" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S162" s="5"/>
     </row>
@@ -9072,7 +9085,7 @@
       <c r="C163" s="2">
         <v>34.9</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="15">
         <f t="shared" si="4"/>
         <v>0.5496062992125984</v>
       </c>
@@ -9088,7 +9101,7 @@
       <c r="H163" s="2">
         <v>9.5</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="14">
         <f t="shared" si="5"/>
         <v>0.59748427672955973</v>
       </c>
@@ -9119,13 +9132,13 @@
       <c r="A164" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D164" t="e">
+      <c r="D164" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I164" t="e">
+        <v/>
+      </c>
+      <c r="I164" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S164" s="5"/>
     </row>
@@ -9135,17 +9148,17 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" t="e">
+      <c r="D165" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
-      <c r="I165" t="e">
+      <c r="I165" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
@@ -9167,13 +9180,13 @@
       <c r="A166" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D166" t="e">
+      <c r="D166" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I166" t="e">
+        <v/>
+      </c>
+      <c r="I166" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S166" s="5"/>
     </row>
@@ -9187,7 +9200,7 @@
       <c r="C167" s="2">
         <v>22</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="15">
         <f t="shared" si="4"/>
         <v>0.57591623036649209</v>
       </c>
@@ -9203,7 +9216,7 @@
       <c r="H167" s="2">
         <v>11.1</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="14">
         <f t="shared" si="5"/>
         <v>0.64161849710982655</v>
       </c>
@@ -9225,7 +9238,7 @@
       <c r="C168" s="2">
         <v>17.7</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="15">
         <f t="shared" si="4"/>
         <v>0.54128440366972475</v>
       </c>
@@ -9241,7 +9254,7 @@
       <c r="H168" s="2">
         <v>6.9</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="14">
         <f t="shared" si="5"/>
         <v>0.54330708661417326</v>
       </c>
@@ -9286,7 +9299,7 @@
       <c r="C169" s="2">
         <v>17.8</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="15">
         <f t="shared" si="4"/>
         <v>0.60135135135135132</v>
       </c>
@@ -9296,9 +9309,9 @@
       <c r="F169" s="2">
         <v>3</v>
       </c>
-      <c r="I169" t="e">
+      <c r="I169" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S169" s="5"/>
     </row>
@@ -9308,17 +9321,17 @@
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
-      <c r="D170" t="e">
+      <c r="D170" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
-      <c r="I170" t="e">
+      <c r="I170" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
@@ -9345,17 +9358,17 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" t="e">
+      <c r="D171" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
-      <c r="I171" t="e">
+      <c r="I171" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
@@ -9386,7 +9399,7 @@
       <c r="C172" s="2">
         <v>26.9</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="15">
         <f t="shared" si="4"/>
         <v>0.64663461538461531</v>
       </c>
@@ -9396,9 +9409,9 @@
       <c r="F172" s="2">
         <v>10</v>
       </c>
-      <c r="I172" t="e">
+      <c r="I172" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S172" s="5"/>
     </row>
@@ -9412,7 +9425,7 @@
       <c r="C173" s="2">
         <v>20.5</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="15">
         <f t="shared" si="4"/>
         <v>0.54666666666666663</v>
       </c>
@@ -9424,9 +9437,9 @@
       </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
-      <c r="I173" t="e">
+      <c r="I173" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
@@ -9465,7 +9478,7 @@
       <c r="C174" s="2">
         <v>25.9</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="15">
         <f t="shared" si="4"/>
         <v>0.6410891089108911</v>
       </c>
@@ -9477,9 +9490,9 @@
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
-      <c r="I174" t="e">
+      <c r="I174" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
@@ -9497,17 +9510,17 @@
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" t="e">
+      <c r="D175" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
-      <c r="I175" t="e">
+      <c r="I175" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
@@ -9542,17 +9555,17 @@
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
-      <c r="D176" t="e">
+      <c r="D176" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
-      <c r="I176" t="e">
+      <c r="I176" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
@@ -9591,7 +9604,7 @@
       <c r="C177" s="2">
         <v>21.5</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="15">
         <f t="shared" si="4"/>
         <v>0.56135770234986948</v>
       </c>
@@ -9603,9 +9616,9 @@
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
-      <c r="I177" t="e">
+      <c r="I177" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
@@ -9631,9 +9644,9 @@
       <c r="C178" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="D178" t="e">
+      <c r="D178" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2">
@@ -9645,7 +9658,7 @@
       <c r="H178" s="2">
         <v>6.8</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="14">
         <f t="shared" si="5"/>
         <v>0.58119658119658124</v>
       </c>
@@ -9679,7 +9692,7 @@
       <c r="C179" s="2">
         <v>19.8</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="15">
         <f t="shared" si="4"/>
         <v>0.66</v>
       </c>
@@ -9695,7 +9708,7 @@
       <c r="H179" s="2">
         <v>8.5</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="14">
         <f t="shared" si="5"/>
         <v>0.63432835820895517</v>
       </c>
@@ -9736,17 +9749,17 @@
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" t="e">
+      <c r="D180" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
-      <c r="I180" t="e">
+      <c r="I180" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
@@ -9774,7 +9787,7 @@
       <c r="C181" s="2">
         <v>19.8</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="15">
         <f t="shared" si="4"/>
         <v>0.62264150943396224</v>
       </c>
@@ -9790,7 +9803,7 @@
       <c r="H181" s="2">
         <v>9.5</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="14">
         <f t="shared" si="5"/>
         <v>0.66433566433566427</v>
       </c>
@@ -9831,17 +9844,17 @@
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" t="e">
+      <c r="D182" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
-      <c r="I182" t="e">
+      <c r="I182" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
@@ -9866,13 +9879,13 @@
       <c r="A183" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D183" t="e">
+      <c r="D183" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I183" t="e">
+        <v/>
+      </c>
+      <c r="I183" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="S183" s="5"/>
     </row>
@@ -9882,17 +9895,17 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" t="e">
+      <c r="D184" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
-      <c r="I184" t="e">
+      <c r="I184" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -9919,17 +9932,17 @@
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
-      <c r="D185" t="e">
+      <c r="D185" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
-      <c r="I185" t="e">
+      <c r="I185" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
@@ -9960,7 +9973,7 @@
       <c r="C186" s="2">
         <v>33.4</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="15">
         <f t="shared" si="4"/>
         <v>0.55206611570247932</v>
       </c>
@@ -9976,7 +9989,7 @@
       <c r="H186" s="2">
         <v>12.7</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="14">
         <f t="shared" si="5"/>
         <v>0.57207207207207211</v>
       </c>
@@ -10004,14 +10017,50 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I68:I91">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B68:B91">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="num" val="0.55000000000000004"/>
+        <cfvo type="num" val="22.9"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color theme="9"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C91">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="13.7"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:G91">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="8.1999999999999993"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68:H91">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="4.4000000000000004"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -10023,18 +10072,20 @@
         <cfvo type="num" val="0.63"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color theme="9"/>
+        <color rgb="FF63BE7B"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68:I91">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="num" val="&quot;0,63&quot;"/>
+        <cfvo type="num" val="0.55000000000000004"/>
         <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="9"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
